--- a/data/main_template.xlsx
+++ b/data/main_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josegonzalez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josegonzalez/Desktop/Programación/cursor_steris/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A961071C-E7DD-C74D-9E04-62F82C155A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD49E9-D8EE-FA4C-BA08-CFC6E24A75C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="700" windowWidth="18900" windowHeight="19120" xr2:uid="{F4B42206-7451-0F43-8B4A-CBCEE17849CE}"/>
+    <workbookView xWindow="200" yWindow="700" windowWidth="38000" windowHeight="19120" xr2:uid="{F4B42206-7451-0F43-8B4A-CBCEE17849CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Elaborado por:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Mejía / Implementaciones Heatlhic </t>
   </si>
   <si>
     <t>Atn.:</t>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Contacto Compras Cel. 55 6560 0475</t>
+  </si>
+  <si>
+    <t>A. Rodríguez / Compras</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -423,29 +423,38 @@
     <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,7 +847,7 @@
     <col min="1" max="1" width="18.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="45.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="3" customWidth="1"/>
@@ -872,10 +881,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -888,20 +897,20 @@
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
@@ -918,10 +927,10 @@
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
@@ -930,89 +939,86 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="45"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -1021,8 +1027,8 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
@@ -1038,31 +1044,31 @@
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>27</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1073,7 +1079,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1083,7 +1089,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1093,7 +1099,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1103,7 +1109,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1113,7 +1119,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1123,7 +1129,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1133,7 +1139,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1143,7 +1149,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1153,7 +1159,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1163,7 +1169,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1173,7 +1179,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1183,7 +1189,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1303,14 +1309,14 @@
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="30">
         <f>SUM(G17:G39)</f>
@@ -1327,7 +1333,7 @@
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" s="30">
         <f>G41*0.16</f>
@@ -1337,28 +1343,28 @@
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
       <c r="F44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="34">
         <f>G41+G42</f>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="8"/>
@@ -1410,7 +1416,7 @@
     </row>
     <row r="49" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="50" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -1452,10 +1458,10 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
-        <v>38</v>
+      <c r="A53" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="B53" s="45"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
@@ -10943,12 +10949,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F14"/>
     <mergeCell ref="A17:A29"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A53:B53"/>
@@ -10957,7 +10958,12 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.25291073738680464" right="0.29689521345407505" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
